--- a/JunitTestProject/doc/002-JUnit - 环境设置.xlsx
+++ b/JunitTestProject/doc/002-JUnit - 环境设置.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\git\workspace\JunitTest\JunitTestProject\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhangbao\git\JunitTest\JunitTestProject\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456436FE-B2B5-427F-9278-B338D40CD472}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDD86F2-2D15-4688-800D-93310F7C8A71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -249,21 +249,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>199143</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>209405</xdr:rowOff>
+      <xdr:colOff>627714</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>227946</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC07958A-7DBE-469D-94D0-A7D5FD653BA3}"/>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1B43E42-3AF8-4191-9F9A-95A74A45244D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -279,8 +279,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="238125"/>
-          <a:ext cx="7057143" cy="1161905"/>
+          <a:off x="0" y="1666875"/>
+          <a:ext cx="7485714" cy="5228571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -293,21 +293,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>656371</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>227946</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>199143</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>209405</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD197B4A-9992-4235-A32D-4D8922B25BAF}"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC07958A-7DBE-469D-94D0-A7D5FD653BA3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -323,8 +323,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1666875"/>
-          <a:ext cx="6828571" cy="5228571"/>
+          <a:off x="0" y="238125"/>
+          <a:ext cx="7057143" cy="1161905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -665,16 +665,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -689,7 +689,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1981200" y="3219450"/>
+          <a:off x="2143125" y="3333750"/>
           <a:ext cx="2838450" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -731,14 +731,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -755,7 +755,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5143500" y="2771775"/>
+          <a:off x="5772150" y="2771775"/>
           <a:ext cx="1524000" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1899,7 +1899,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -1961,7 +1963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416259AE-70E2-490B-A4FC-FBC812175695}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>
